--- a/optimize/Axiory/covid/MA25/NIKKEI/M5/matrix_NIKKEI_M5_MA25_2020_1.xlsx
+++ b/optimize/Axiory/covid/MA25/NIKKEI/M5/matrix_NIKKEI_M5_MA25_2020_1.xlsx
@@ -444,31 +444,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-2812</v>
+        <v>-2802</v>
       </c>
       <c r="C2">
-        <v>4970</v>
+        <v>4980</v>
       </c>
       <c r="D2">
-        <v>9242</v>
+        <v>9252</v>
       </c>
       <c r="E2">
-        <v>-244</v>
+        <v>-234</v>
       </c>
       <c r="F2">
-        <v>5306</v>
+        <v>5316</v>
       </c>
       <c r="G2">
-        <v>-1222</v>
+        <v>-1212</v>
       </c>
       <c r="H2">
-        <v>1286</v>
+        <v>1296</v>
       </c>
       <c r="I2">
-        <v>-5440</v>
+        <v>-5430</v>
       </c>
       <c r="J2">
-        <v>-6698</v>
+        <v>-6688</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -476,31 +476,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-3380</v>
+        <v>-3370</v>
       </c>
       <c r="C3">
-        <v>1772</v>
+        <v>1782</v>
       </c>
       <c r="D3">
-        <v>7052</v>
+        <v>7062</v>
       </c>
       <c r="E3">
-        <v>1252</v>
+        <v>1262</v>
       </c>
       <c r="F3">
-        <v>-3792</v>
+        <v>-3782</v>
       </c>
       <c r="G3">
-        <v>5196</v>
+        <v>5206</v>
       </c>
       <c r="H3">
-        <v>-1396</v>
+        <v>-1386</v>
       </c>
       <c r="I3">
-        <v>-4362</v>
+        <v>-4352</v>
       </c>
       <c r="J3">
-        <v>-2262</v>
+        <v>-2252</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -508,31 +508,31 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>-3608</v>
+        <v>-3598</v>
       </c>
       <c r="C4">
-        <v>1772</v>
+        <v>1782</v>
       </c>
       <c r="D4">
-        <v>10940</v>
+        <v>10950</v>
       </c>
       <c r="E4">
-        <v>-4596</v>
+        <v>-4586</v>
       </c>
       <c r="F4">
-        <v>1086</v>
+        <v>1096</v>
       </c>
       <c r="G4">
-        <v>3950</v>
+        <v>3960</v>
       </c>
       <c r="H4">
-        <v>3476</v>
+        <v>3486</v>
       </c>
       <c r="I4">
-        <v>-3850</v>
+        <v>-3840</v>
       </c>
       <c r="J4">
-        <v>-480</v>
+        <v>-470</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -540,31 +540,31 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>-2750</v>
+        <v>-2740</v>
       </c>
       <c r="C5">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D5">
-        <v>7974</v>
+        <v>7984</v>
       </c>
       <c r="E5">
-        <v>-1244</v>
+        <v>-1234</v>
       </c>
       <c r="F5">
-        <v>7148</v>
+        <v>7158</v>
       </c>
       <c r="G5">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="H5">
-        <v>3454</v>
+        <v>3464</v>
       </c>
       <c r="I5">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="J5">
-        <v>-2886</v>
+        <v>-2876</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -572,31 +572,31 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>-1282</v>
+        <v>-1272</v>
       </c>
       <c r="C6">
-        <v>-148</v>
+        <v>-138</v>
       </c>
       <c r="D6">
-        <v>7304</v>
+        <v>7314</v>
       </c>
       <c r="E6">
-        <v>3774</v>
+        <v>3784</v>
       </c>
       <c r="F6">
-        <v>9242</v>
+        <v>9252</v>
       </c>
       <c r="G6">
-        <v>1592</v>
+        <v>1602</v>
       </c>
       <c r="H6">
-        <v>6298</v>
+        <v>6308</v>
       </c>
       <c r="I6">
-        <v>-858</v>
+        <v>-848</v>
       </c>
       <c r="J6">
-        <v>-1466</v>
+        <v>-1456</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -604,31 +604,31 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>-472</v>
+        <v>-462</v>
       </c>
       <c r="C7">
-        <v>-1434</v>
+        <v>-1424</v>
       </c>
       <c r="D7">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="E7">
-        <v>4316</v>
+        <v>4326</v>
       </c>
       <c r="F7">
-        <v>10100</v>
+        <v>10110</v>
       </c>
       <c r="G7">
-        <v>6818</v>
+        <v>6828</v>
       </c>
       <c r="H7">
-        <v>10772</v>
+        <v>10782</v>
       </c>
       <c r="I7">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="J7">
-        <v>-3160</v>
+        <v>-3150</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -636,31 +636,31 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>-388</v>
+        <v>-378</v>
       </c>
       <c r="C8">
-        <v>3562</v>
+        <v>3572</v>
       </c>
       <c r="D8">
-        <v>1320</v>
+        <v>1330</v>
       </c>
       <c r="E8">
-        <v>5912</v>
+        <v>5922</v>
       </c>
       <c r="F8">
-        <v>4820</v>
+        <v>4830</v>
       </c>
       <c r="G8">
-        <v>5302</v>
+        <v>5312</v>
       </c>
       <c r="H8">
-        <v>7062</v>
+        <v>7072</v>
       </c>
       <c r="I8">
-        <v>3090</v>
+        <v>3100</v>
       </c>
       <c r="J8">
-        <v>-1300</v>
+        <v>-1290</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -668,31 +668,31 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>-1976</v>
+        <v>-1966</v>
       </c>
       <c r="C9">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="D9">
-        <v>5264</v>
+        <v>5274</v>
       </c>
       <c r="E9">
-        <v>1954</v>
+        <v>1964</v>
       </c>
       <c r="F9">
-        <v>6244</v>
+        <v>6254</v>
       </c>
       <c r="G9">
-        <v>4114</v>
+        <v>4124</v>
       </c>
       <c r="H9">
-        <v>4456</v>
+        <v>4466</v>
       </c>
       <c r="I9">
-        <v>4500</v>
+        <v>4510</v>
       </c>
       <c r="J9">
-        <v>-4482</v>
+        <v>-4472</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -700,31 +700,31 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>-2054</v>
+        <v>-2044</v>
       </c>
       <c r="C10">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D10">
-        <v>2914</v>
+        <v>2924</v>
       </c>
       <c r="E10">
-        <v>2802</v>
+        <v>2812</v>
       </c>
       <c r="F10">
-        <v>6548</v>
+        <v>6558</v>
       </c>
       <c r="G10">
-        <v>6918</v>
+        <v>6928</v>
       </c>
       <c r="H10">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="I10">
-        <v>3720</v>
+        <v>3730</v>
       </c>
       <c r="J10">
-        <v>-3522</v>
+        <v>-3512</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -732,31 +732,31 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>-3286</v>
+        <v>-3276</v>
       </c>
       <c r="C11">
-        <v>-432</v>
+        <v>-422</v>
       </c>
       <c r="D11">
-        <v>2740</v>
+        <v>2750</v>
       </c>
       <c r="E11">
-        <v>1310</v>
+        <v>1320</v>
       </c>
       <c r="F11">
-        <v>11030</v>
+        <v>11040</v>
       </c>
       <c r="G11">
-        <v>8792</v>
+        <v>8802</v>
       </c>
       <c r="H11">
-        <v>2564</v>
+        <v>2574</v>
       </c>
       <c r="I11">
-        <v>-1548</v>
+        <v>-1538</v>
       </c>
       <c r="J11">
-        <v>-3026</v>
+        <v>-3016</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -764,31 +764,31 @@
         <v>55</v>
       </c>
       <c r="B12">
-        <v>-2620</v>
+        <v>-2610</v>
       </c>
       <c r="C12">
-        <v>-2482</v>
+        <v>-2472</v>
       </c>
       <c r="D12">
-        <v>2798</v>
+        <v>2808</v>
       </c>
       <c r="E12">
-        <v>3718</v>
+        <v>3728</v>
       </c>
       <c r="F12">
-        <v>7584</v>
+        <v>7594</v>
       </c>
       <c r="G12">
-        <v>6118</v>
+        <v>6128</v>
       </c>
       <c r="H12">
-        <v>-336</v>
+        <v>-326</v>
       </c>
       <c r="I12">
-        <v>2914</v>
+        <v>2924</v>
       </c>
       <c r="J12">
-        <v>-2636</v>
+        <v>-2626</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -796,31 +796,31 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>-3588</v>
+        <v>-3578</v>
       </c>
       <c r="C13">
-        <v>1496</v>
+        <v>1506</v>
       </c>
       <c r="D13">
-        <v>1886</v>
+        <v>1896</v>
       </c>
       <c r="E13">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="F13">
-        <v>10788</v>
+        <v>10798</v>
       </c>
       <c r="G13">
-        <v>5774</v>
+        <v>5784</v>
       </c>
       <c r="H13">
-        <v>1892</v>
+        <v>1902</v>
       </c>
       <c r="I13">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="J13">
-        <v>-1104</v>
+        <v>-1094</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -828,31 +828,31 @@
         <v>65</v>
       </c>
       <c r="B14">
-        <v>-1086</v>
+        <v>-1076</v>
       </c>
       <c r="C14">
-        <v>1470</v>
+        <v>1480</v>
       </c>
       <c r="D14">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E14">
-        <v>1118</v>
+        <v>1128</v>
       </c>
       <c r="F14">
-        <v>12904</v>
+        <v>12914</v>
       </c>
       <c r="G14">
-        <v>8360</v>
+        <v>8370</v>
       </c>
       <c r="H14">
-        <v>5772</v>
+        <v>5782</v>
       </c>
       <c r="I14">
-        <v>2200</v>
+        <v>2210</v>
       </c>
       <c r="J14">
-        <v>1594</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -860,31 +860,31 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <v>-188</v>
+        <v>-178</v>
       </c>
       <c r="C15">
-        <v>1844</v>
+        <v>1854</v>
       </c>
       <c r="D15">
-        <v>4584</v>
+        <v>4594</v>
       </c>
       <c r="E15">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="F15">
-        <v>9866</v>
+        <v>9876</v>
       </c>
       <c r="G15">
-        <v>6270</v>
+        <v>6280</v>
       </c>
       <c r="H15">
-        <v>6538</v>
+        <v>6548</v>
       </c>
       <c r="I15">
-        <v>5178</v>
+        <v>5188</v>
       </c>
       <c r="J15">
-        <v>1784</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -892,31 +892,31 @@
         <v>75</v>
       </c>
       <c r="B16">
-        <v>-668</v>
+        <v>-658</v>
       </c>
       <c r="C16">
-        <v>2860</v>
+        <v>2870</v>
       </c>
       <c r="D16">
-        <v>4334</v>
+        <v>4344</v>
       </c>
       <c r="E16">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="F16">
-        <v>12010</v>
+        <v>12020</v>
       </c>
       <c r="G16">
-        <v>8178</v>
+        <v>8188</v>
       </c>
       <c r="H16">
-        <v>3750</v>
+        <v>3760</v>
       </c>
       <c r="I16">
-        <v>3338</v>
+        <v>3348</v>
       </c>
       <c r="J16">
-        <v>2168</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -924,31 +924,31 @@
         <v>80</v>
       </c>
       <c r="B17">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="C17">
-        <v>2724</v>
+        <v>2734</v>
       </c>
       <c r="D17">
-        <v>3006</v>
+        <v>3016</v>
       </c>
       <c r="E17">
-        <v>-1990</v>
+        <v>-1980</v>
       </c>
       <c r="F17">
-        <v>10404</v>
+        <v>10414</v>
       </c>
       <c r="G17">
-        <v>5648</v>
+        <v>5658</v>
       </c>
       <c r="H17">
-        <v>2834</v>
+        <v>2844</v>
       </c>
       <c r="I17">
-        <v>3524</v>
+        <v>3534</v>
       </c>
       <c r="J17">
-        <v>2140</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -956,31 +956,31 @@
         <v>85</v>
       </c>
       <c r="B18">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C18">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="D18">
-        <v>4588</v>
+        <v>4598</v>
       </c>
       <c r="E18">
-        <v>-2146</v>
+        <v>-2136</v>
       </c>
       <c r="F18">
-        <v>9604</v>
+        <v>9614</v>
       </c>
       <c r="G18">
-        <v>3532</v>
+        <v>3542</v>
       </c>
       <c r="H18">
-        <v>7506</v>
+        <v>7516</v>
       </c>
       <c r="I18">
-        <v>6166</v>
+        <v>6176</v>
       </c>
       <c r="J18">
-        <v>994</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
